--- a/I.Agroindustrial/HORARIOS ING_AGROINDUSTRIAL RECIENTE 3.xlsx
+++ b/I.Agroindustrial/HORARIOS ING_AGROINDUSTRIAL RECIENTE 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CFD7BD-1430-4FC8-B839-2192D0DD7361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E40F2A-4DCF-45D3-9D90-08B281563FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -1597,7 +1597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1843,6 +1843,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T223"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2243,7 @@
       <c r="M5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="133" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="21">
@@ -2267,7 +2270,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
       <c r="M6" s="57"/>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="133" t="s">
         <v>30</v>
       </c>
       <c r="Q6" s="21">
@@ -2378,7 +2381,7 @@
       <c r="M9" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="133" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="21">
@@ -4459,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A3:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6:O10"/>
     </sheetView>
   </sheetViews>
